--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail1 Features.xlsx
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647582248389263</v>
+        <v>1.62079353185739</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.4874271627811</v>
@@ -3612,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.668729439055119</v>
+        <v>1.635944611499472</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.453317678300765</v>
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.722387233381665</v>
+        <v>1.671227888045057</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.525029741233916</v>
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.777072550053599</v>
+        <v>1.709586579810437</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.362725306921411</v>
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.782240743632975</v>
+        <v>1.715349198072928</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.914585094858585</v>
@@ -3968,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.782266598881332</v>
+        <v>1.712809566387412</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.311905236488854</v>
@@ -4057,7 +4057,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.776220933782521</v>
+        <v>1.703235888912523</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.748660276593201</v>
@@ -4146,7 +4146,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.779328989055575</v>
+        <v>1.70057946073016</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.472210589616547</v>
@@ -4235,7 +4235,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.782506553745901</v>
+        <v>1.704425912432283</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.633427954481585</v>
@@ -4324,7 +4324,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.750791286511783</v>
+        <v>1.679110753100315</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.619884663318036</v>
@@ -4413,7 +4413,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.735345997465484</v>
+        <v>1.670802992559467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.9076335000386</v>
@@ -4502,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.725445723295421</v>
+        <v>1.664135738132654</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.79589272763913</v>
@@ -4591,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721967839046398</v>
+        <v>1.658842285719229</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.289289673557204</v>
@@ -4680,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.656430868743393</v>
+        <v>1.615254535929485</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.261653101286946</v>
@@ -4769,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.655803818215604</v>
+        <v>1.62352077001108</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.254498245043935</v>
@@ -4858,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641287523407829</v>
+        <v>1.613079508649559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.216736241746405</v>
@@ -4947,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.640163313785307</v>
+        <v>1.615870180598653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.338299087272988</v>
@@ -5036,7 +5036,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.635665874623872</v>
+        <v>1.612349280456104</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.223457132164207</v>
@@ -5125,7 +5125,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.629835831928082</v>
+        <v>1.610237063414833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.206407792740472</v>
@@ -5214,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.62683223870781</v>
+        <v>1.609511159586992</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.264683046976541</v>
@@ -5303,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.625851669909083</v>
+        <v>1.610291184914556</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.260389946112702</v>
@@ -5392,7 +5392,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.618684924274525</v>
+        <v>1.599002586473868</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.286272013847893</v>
@@ -5481,7 +5481,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609339712780048</v>
+        <v>1.586029310397646</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.245351130172585</v>
@@ -5570,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619889540800641</v>
+        <v>1.598235814049002</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.390048580820862</v>
@@ -5659,7 +5659,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623741043161216</v>
+        <v>1.60022662788465</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.238960101958903</v>
@@ -5748,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591838873528798</v>
+        <v>1.576214387661822</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.268057328047969</v>
@@ -5837,7 +5837,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.593875756744043</v>
+        <v>1.580087805557717</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.277193610287031</v>
@@ -5926,7 +5926,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628601521447437</v>
+        <v>1.613733977182324</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.131098639656553</v>
@@ -6015,7 +6015,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652189386016232</v>
+        <v>1.629415220641656</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.54116822677754</v>
@@ -6104,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666638401186944</v>
+        <v>1.635724428018589</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.749762217960821</v>
@@ -6193,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.670730816349438</v>
+        <v>1.639404746017433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.609232595094026</v>
@@ -6282,7 +6282,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670443364615686</v>
+        <v>1.630799299202382</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.62059457167369</v>
@@ -6371,7 +6371,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672045146131535</v>
+        <v>1.626649338693787</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.619625892927764</v>
@@ -6460,7 +6460,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.671917755958042</v>
+        <v>1.624737862228398</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.436522028973916</v>
@@ -6549,7 +6549,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.663406680490789</v>
+        <v>1.616868646181124</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.457454374260764</v>
@@ -6638,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.663951324209585</v>
+        <v>1.614320928163449</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.593794696333778</v>
@@ -6727,7 +6727,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667954281223267</v>
+        <v>1.617058878923544</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.527917030345913</v>
@@ -6816,7 +6816,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671939283116834</v>
+        <v>1.619745673454378</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.54270390844638</v>
@@ -6905,7 +6905,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672598959562601</v>
+        <v>1.610486423226903</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.58453902534922</v>
@@ -6994,7 +6994,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668950096907031</v>
+        <v>1.610272012427013</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.621135039848927</v>
@@ -7083,7 +7083,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.714463122215813</v>
+        <v>1.645121187701401</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.37377210670827</v>
@@ -7172,7 +7172,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.721436835742085</v>
+        <v>1.645571732372028</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.876784986992771</v>
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.664102047402586</v>
+        <v>1.631941315003819</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.360598001199149</v>
@@ -7547,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670483399473295</v>
+        <v>1.640083749450151</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.014084094824324</v>
@@ -7636,7 +7636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.677493243097755</v>
+        <v>1.649267899789572</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.17769220437301</v>
@@ -7725,7 +7725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.685582705690236</v>
+        <v>1.64779302459573</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.351379959458895</v>
@@ -7814,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.678418595879094</v>
+        <v>1.646419645121135</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.086002490525075</v>
@@ -7903,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678648242848199</v>
+        <v>1.64850291512042</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.34324307895491</v>
@@ -7992,7 +7992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.6888954123562</v>
+        <v>1.65696490432075</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.344430096137748</v>
@@ -8081,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.687069764021289</v>
+        <v>1.655674989064785</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.13437726297989</v>
@@ -8170,7 +8170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683032370442495</v>
+        <v>1.653309844236936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.065881028308209</v>
@@ -8259,7 +8259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683321698667741</v>
+        <v>1.652196124288831</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.003788476112423</v>
@@ -8348,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675524319618193</v>
+        <v>1.650904909067424</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.729148066971653</v>
@@ -8437,7 +8437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670416986570823</v>
+        <v>1.652678595192179</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.075135342108015</v>
@@ -8526,7 +8526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.658561914857902</v>
+        <v>1.63808331031855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.762801777377544</v>
@@ -8615,7 +8615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646174305428471</v>
+        <v>1.629072783153736</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.928711669564864</v>
@@ -8704,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656957850799502</v>
+        <v>1.637027665469625</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.026718450484636</v>
@@ -8793,7 +8793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644937143642488</v>
+        <v>1.622435851891615</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.9728452003357</v>
@@ -8882,7 +8882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.644143790055663</v>
+        <v>1.620312234397158</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.873909898687911</v>
@@ -8971,7 +8971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.629918311811625</v>
+        <v>1.598120015258062</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.791834617906406</v>
@@ -9060,7 +9060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625238407696594</v>
+        <v>1.600033976012596</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.492538512903393</v>
@@ -9149,7 +9149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616360897707767</v>
+        <v>1.593900545191271</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.877053953811136</v>
@@ -9238,7 +9238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614297233425113</v>
+        <v>1.587863660641986</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.795391146165391</v>
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604664014706208</v>
+        <v>1.576589040960848</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.607818546667079</v>
@@ -9416,7 +9416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60341087572372</v>
+        <v>1.570776230822246</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.778197893259178</v>
@@ -9505,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611997292858013</v>
+        <v>1.575556826481704</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.813741212906596</v>
@@ -9594,7 +9594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.611473976462424</v>
+        <v>1.575415437045742</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.682902975266176</v>
@@ -9683,7 +9683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631308946677521</v>
+        <v>1.583736656406272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.586197073384498</v>
@@ -9772,7 +9772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61031851626407</v>
+        <v>1.562286312061492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.515047014575438</v>
@@ -9861,7 +9861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.63189537936678</v>
+        <v>1.583824354325263</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.296861814904402</v>
@@ -9950,7 +9950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641407359114045</v>
+        <v>1.586519401581616</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.805643235917979</v>
@@ -10039,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.643422322800077</v>
+        <v>1.587120456518204</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.556529283769878</v>
@@ -10128,7 +10128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644997152595945</v>
+        <v>1.588572150999078</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.659444417415428</v>
@@ -10217,7 +10217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639346801810103</v>
+        <v>1.584192415303014</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.518161912215074</v>
@@ -10306,7 +10306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.660833637122092</v>
+        <v>1.598866365385555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.056620274864396</v>
@@ -10395,7 +10395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642734748435382</v>
+        <v>1.580448392448657</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.836784473225668</v>
@@ -10484,7 +10484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631395008752364</v>
+        <v>1.569262929241481</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.205286795845542</v>
@@ -10573,7 +10573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624858538860769</v>
+        <v>1.562894410600042</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.09013908126312</v>
@@ -10662,7 +10662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.631121885692346</v>
+        <v>1.565957349543931</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.823631797437749</v>
@@ -10751,7 +10751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630317126578907</v>
+        <v>1.569997629615194</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.160165887394624</v>
@@ -10840,7 +10840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622081322691654</v>
+        <v>1.564848054859867</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.152334427969525</v>
@@ -10929,7 +10929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.614602193035913</v>
+        <v>1.561935720647628</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.071055743328926</v>
@@ -11018,7 +11018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61249597579893</v>
+        <v>1.564448496029177</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.926686115029815</v>
@@ -11107,7 +11107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.625057625020136</v>
+        <v>1.574035084179219</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.177530011563786</v>
@@ -11393,7 +11393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.486950174606959</v>
+        <v>1.479232010542349</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.727677276209667</v>
@@ -11482,7 +11482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.49415290378622</v>
+        <v>1.489147150897781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.724353272054372</v>
@@ -11571,7 +11571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501048028342881</v>
+        <v>1.495763850708544</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.707029593532977</v>
@@ -11660,7 +11660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504891414705435</v>
+        <v>1.497015793947103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.722598387753466</v>
@@ -11749,7 +11749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.490434585249127</v>
+        <v>1.48035251597323</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.718350062206228</v>
@@ -11838,7 +11838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.497777816976322</v>
+        <v>1.485904401437824</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.709206448080134</v>
@@ -11927,7 +11927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.493811694204706</v>
+        <v>1.475761576948433</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.690543462816212</v>
@@ -12016,7 +12016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48313212692305</v>
+        <v>1.467811790900104</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.685150416225975</v>
@@ -12105,7 +12105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476618697074303</v>
+        <v>1.464548645536063</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.695634819111498</v>
@@ -12194,7 +12194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.472573119302257</v>
+        <v>1.462491318875077</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.697750619846748</v>
@@ -12283,7 +12283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477090614573432</v>
+        <v>1.467713109159261</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.705948352665707</v>
@@ -12372,7 +12372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480788222942713</v>
+        <v>1.466359945606742</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.72576578499336</v>
@@ -12461,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478644384514333</v>
+        <v>1.45983548007623</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.709878519191896</v>
@@ -12550,7 +12550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.471012492138427</v>
+        <v>1.458023017549106</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.688205009126233</v>
@@ -12639,7 +12639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.560482350125509</v>
+        <v>1.539610767006146</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.835971688177259</v>
@@ -12728,7 +12728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570638583754356</v>
+        <v>1.541416106776706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.909019591778879</v>
@@ -12817,7 +12817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.563630125815195</v>
+        <v>1.530243450061497</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.93862373018502</v>
@@ -12906,7 +12906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562111047624028</v>
+        <v>1.521484878065438</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.077260043326886</v>
@@ -12995,7 +12995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.561269294051372</v>
+        <v>1.525001774759188</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.966430459850978</v>
@@ -13084,7 +13084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568953133262678</v>
+        <v>1.529482200236922</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.923060906483949</v>
@@ -13173,7 +13173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559372035100127</v>
+        <v>1.517737757840954</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.929475185515418</v>
@@ -13262,7 +13262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560652292773038</v>
+        <v>1.515055262452217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.895267431643574</v>
@@ -13351,7 +13351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570921620222698</v>
+        <v>1.519250496254489</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.816378176254287</v>
@@ -13440,7 +13440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583990351602993</v>
+        <v>1.524554445551603</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.625197047803711</v>
@@ -13529,7 +13529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.59225682654807</v>
+        <v>1.530847831248628</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.290211919522011</v>
@@ -13618,7 +13618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589694049152364</v>
+        <v>1.527751780968134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.809048185078943</v>
@@ -13707,7 +13707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585627459114161</v>
+        <v>1.524594363038633</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.841321269479059</v>
@@ -13796,7 +13796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.595735574386346</v>
+        <v>1.54087448666047</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.7124024910738</v>
@@ -13885,7 +13885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598664752255733</v>
+        <v>1.540851394112423</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.33947891358002</v>
@@ -13974,7 +13974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603480492680458</v>
+        <v>1.549947253816475</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.800873959028802</v>
@@ -14063,7 +14063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611193681852584</v>
+        <v>1.556722105770444</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.495030810268993</v>
@@ -14152,7 +14152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.613261952930948</v>
+        <v>1.558024211949128</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.524396873145737</v>
@@ -14241,7 +14241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.6201100132159</v>
+        <v>1.560963399087001</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.340080558438963</v>
@@ -14330,7 +14330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61303054046731</v>
+        <v>1.549116706647379</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.554352669236229</v>
@@ -14419,7 +14419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611539883231051</v>
+        <v>1.554980162175271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.116692192859638</v>
@@ -14508,7 +14508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626124695214027</v>
+        <v>1.56950440958705</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.180588647344681</v>
@@ -14597,7 +14597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.627377471506182</v>
+        <v>1.576059482860826</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.019893692392762</v>
@@ -14686,7 +14686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623437522019034</v>
+        <v>1.571548656301126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.379705994887745</v>
@@ -14775,7 +14775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625502071867012</v>
+        <v>1.564802659152431</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.642847418499945</v>
@@ -14864,7 +14864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.619701514887784</v>
+        <v>1.558422469152545</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.54477711222832</v>
@@ -14953,7 +14953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622609282207362</v>
+        <v>1.566539139073943</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.098858823885836</v>
@@ -15042,7 +15042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621032875391667</v>
+        <v>1.559066312889258</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.246676953714513</v>
@@ -15328,7 +15328,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.73217855468369</v>
+        <v>1.689568384365382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.841374083205643</v>
@@ -15417,7 +15417,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.73708117786949</v>
+        <v>1.692966044269473</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.781380873395593</v>
@@ -15506,7 +15506,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.747224377804787</v>
+        <v>1.701291027419185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.559299922428684</v>
@@ -15595,7 +15595,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.746772684050242</v>
+        <v>1.69068481280288</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.733278926652193</v>
@@ -15684,7 +15684,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.74111727279337</v>
+        <v>1.679742494226055</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.54214186602202</v>
@@ -15773,7 +15773,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.744854956235451</v>
+        <v>1.680573767513762</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.899591638971594</v>
@@ -15862,7 +15862,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.74569638206692</v>
+        <v>1.680104963973187</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.782209200236522</v>
@@ -15951,7 +15951,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75223660374958</v>
+        <v>1.682484848983535</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.718227584180477</v>
@@ -16040,7 +16040,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.749437313191892</v>
+        <v>1.678081081074522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.966864240569444</v>
@@ -16129,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.751039785444176</v>
+        <v>1.684190781464333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.738727364806798</v>
@@ -16218,7 +16218,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.74217856980092</v>
+        <v>1.678772899250421</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.65083538956211</v>
@@ -16307,7 +16307,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744046633788579</v>
+        <v>1.680784600019702</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.258799575063303</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.749903928559576</v>
+        <v>1.681752042063186</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.428565652054899</v>
@@ -16485,7 +16485,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.759469986279581</v>
+        <v>1.691776739644336</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.613364236642503</v>
@@ -16574,7 +16574,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765513176745922</v>
+        <v>1.696884788574036</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.413413121888928</v>
@@ -16663,7 +16663,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.774474905089534</v>
+        <v>1.716059627362613</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.308392829079265</v>
@@ -16752,7 +16752,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.770007293061692</v>
+        <v>1.708512098854914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.421110363248157</v>
@@ -16841,7 +16841,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.760592207578652</v>
+        <v>1.690780618378678</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.989668251854252</v>
@@ -16930,7 +16930,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.75575681777123</v>
+        <v>1.695383642701459</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.246652951904718</v>
@@ -17019,7 +17019,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.76023520593471</v>
+        <v>1.703782530852578</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.164460287707274</v>
@@ -17108,7 +17108,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.754823889324772</v>
+        <v>1.699929628103893</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.135776750691588</v>
@@ -17197,7 +17197,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.751753847992299</v>
+        <v>1.691555330797161</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.192948270404602</v>
@@ -17286,7 +17286,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.746477734955358</v>
+        <v>1.673380574665572</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.068117767431018</v>
@@ -17375,7 +17375,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.746578245234622</v>
+        <v>1.672867302589709</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.781031158093353</v>
@@ -17464,7 +17464,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.745991813557167</v>
+        <v>1.662653661700749</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.734588310347597</v>
@@ -17553,7 +17553,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.744043622493185</v>
+        <v>1.659298543920142</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.118913516348149</v>
@@ -17642,7 +17642,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.73516504898487</v>
+        <v>1.65411864950518</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.996471661060343</v>
@@ -17731,7 +17731,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.739568011702165</v>
+        <v>1.651331781269688</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.821471333256417</v>
@@ -17820,7 +17820,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.740843262344168</v>
+        <v>1.648806612336288</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.970949223364384</v>
@@ -17909,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.741113085778122</v>
+        <v>1.645168845188487</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.614074244325586</v>
@@ -17998,7 +17998,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738388616825101</v>
+        <v>1.638307113623378</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.900279332933969</v>
@@ -18087,7 +18087,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.7435804054942</v>
+        <v>1.634069003058392</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.285965193494695</v>
@@ -18176,7 +18176,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.744245961638171</v>
+        <v>1.638490995959716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.562290105604737</v>
@@ -18265,7 +18265,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.738985516017173</v>
+        <v>1.634900951466399</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.024588176857842</v>
@@ -18354,7 +18354,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722704451761019</v>
+        <v>1.622256403077404</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.403736641791137</v>
@@ -18443,7 +18443,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.718195447696112</v>
+        <v>1.616799275936481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.622275063504659</v>
@@ -18532,7 +18532,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715922542669756</v>
+        <v>1.610491758352868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.525522549372599</v>
@@ -18621,7 +18621,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.7177551394179</v>
+        <v>1.61588727559126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.64679456503953</v>
@@ -18710,7 +18710,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.717686511182399</v>
+        <v>1.611617835770647</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.783188468225023</v>
@@ -18799,7 +18799,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723274746915006</v>
+        <v>1.620150950307268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.60287493099084</v>
@@ -18888,7 +18888,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.721179996046786</v>
+        <v>1.624121679662196</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.306520707890365</v>
@@ -18977,7 +18977,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.718501211895255</v>
+        <v>1.618113908704462</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.925231592838621</v>
@@ -19263,7 +19263,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653090854974346</v>
+        <v>1.626600372057707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.917982849610966</v>
@@ -19352,7 +19352,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.652418704133527</v>
+        <v>1.628236397837983</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.894447523843676</v>
@@ -19441,7 +19441,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.652377102374715</v>
+        <v>1.627511789799188</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.893537307498409</v>
@@ -19530,7 +19530,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.650380551167883</v>
+        <v>1.625695693305542</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.912856231377838</v>
@@ -19619,7 +19619,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652869261013813</v>
+        <v>1.630830692936349</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.668240166793394</v>
@@ -19708,7 +19708,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661324802360597</v>
+        <v>1.637288880197643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.823360206048879</v>
@@ -19797,7 +19797,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.665081231654969</v>
+        <v>1.640586252120045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.985475801700043</v>
@@ -19886,7 +19886,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.667306469386247</v>
+        <v>1.646160329497325</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.873783338394162</v>
@@ -19975,7 +19975,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671346297604053</v>
+        <v>1.646437687854338</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.815948120495623</v>
@@ -20064,7 +20064,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.674957808966643</v>
+        <v>1.652632491548182</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.834345387280503</v>
@@ -20153,7 +20153,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.680946604736844</v>
+        <v>1.65585508900806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.635967465539859</v>
@@ -20242,7 +20242,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.704131565261665</v>
+        <v>1.673358731685266</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.494785000674629</v>
@@ -20331,7 +20331,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699789246395803</v>
+        <v>1.669378061698499</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.345883624280227</v>
@@ -20420,7 +20420,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.712005347596599</v>
+        <v>1.682028705889751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.272292943417013</v>
@@ -20509,7 +20509,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.725927265602014</v>
+        <v>1.701821110868087</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.147349253775805</v>
@@ -20598,7 +20598,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.713384400341498</v>
+        <v>1.687325885222696</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.410943103200041</v>
@@ -20687,7 +20687,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.706804002677365</v>
+        <v>1.678027240864305</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.992098909243684</v>
@@ -20776,7 +20776,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.694353163338861</v>
+        <v>1.669012023512388</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.20215164600937</v>
@@ -20865,7 +20865,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689115805407176</v>
+        <v>1.670910142118785</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.2605274949368</v>
@@ -20954,7 +20954,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.67391168475416</v>
+        <v>1.654243014208012</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.208840852360466</v>
@@ -21043,7 +21043,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.667278575724939</v>
+        <v>1.646590948470436</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.391847957887326</v>
@@ -21132,7 +21132,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644536628334913</v>
+        <v>1.628903727107433</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.977052133242387</v>
@@ -21221,7 +21221,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.639072789982241</v>
+        <v>1.623384853695526</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.997082855286905</v>
@@ -21310,7 +21310,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.634788899780397</v>
+        <v>1.619821352865952</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.099488392320609</v>
@@ -21399,7 +21399,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642331363273988</v>
+        <v>1.623743899755516</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.849442130442422</v>
@@ -21488,7 +21488,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.646377960155212</v>
+        <v>1.628173860224546</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.828828587614741</v>
@@ -21577,7 +21577,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629960875202213</v>
+        <v>1.613026999487972</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.923941150430926</v>
@@ -21666,7 +21666,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.634184018476052</v>
+        <v>1.615338816642089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.637712102327361</v>
@@ -21755,7 +21755,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.623816647590903</v>
+        <v>1.606973090441336</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.841352707276066</v>
@@ -21844,7 +21844,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622664899735803</v>
+        <v>1.607706871290048</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.697475021696522</v>
@@ -21933,7 +21933,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.620109681995428</v>
+        <v>1.605049905987599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.954350488007738</v>
@@ -22022,7 +22022,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62321971220424</v>
+        <v>1.604655410379313</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.713143716803788</v>
@@ -22111,7 +22111,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640627088275886</v>
+        <v>1.615803581779252</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.530813716068335</v>
@@ -22200,7 +22200,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629382741673006</v>
+        <v>1.608577299097797</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.023382932331459</v>
@@ -22289,7 +22289,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621363465295934</v>
+        <v>1.602824892421704</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.690857186042536</v>
@@ -22378,7 +22378,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61256743416483</v>
+        <v>1.597378108257846</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.965167215126896</v>
@@ -22467,7 +22467,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64334271029185</v>
+        <v>1.623207574133279</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.237734711990622</v>
@@ -22556,7 +22556,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.6362541430402</v>
+        <v>1.620773112289765</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.346651842095919</v>
@@ -22645,7 +22645,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.638943254838468</v>
+        <v>1.614429876654193</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.404389764727407</v>
@@ -22734,7 +22734,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626405694389359</v>
+        <v>1.596755551946214</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.981636696102031</v>
@@ -22823,7 +22823,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.616123405692137</v>
+        <v>1.587260405239079</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.201498068261815</v>
@@ -22912,7 +22912,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.61326951751701</v>
+        <v>1.59244714679778</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.377836852218933</v>
@@ -23198,7 +23198,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633754922022139</v>
+        <v>1.658748139299372</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.789247610730214</v>
@@ -23287,7 +23287,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.655474700438154</v>
+        <v>1.685702388035379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.790704454031422</v>
@@ -23376,7 +23376,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.701948441521511</v>
+        <v>1.72309614865242</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.759536627635378</v>
@@ -23465,7 +23465,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.747812932008909</v>
+        <v>1.765588624097081</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.282951846229402</v>
@@ -23554,7 +23554,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.755674588994554</v>
+        <v>1.774911397868795</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.450997860360744</v>
@@ -23643,7 +23643,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.768521578380023</v>
+        <v>1.780349549764423</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.520400382933545</v>
@@ -23732,7 +23732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.773311239523918</v>
+        <v>1.789815114994966</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.527338406374568</v>
@@ -23821,7 +23821,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.77311378377384</v>
+        <v>1.791091742924549</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.369172210478383</v>
@@ -23910,7 +23910,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.781800291296139</v>
+        <v>1.798177471026621</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.86856424025373</v>
@@ -23999,7 +23999,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.770230980946448</v>
+        <v>1.784815837001655</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.640473275157329</v>
@@ -24088,7 +24088,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.752183242285407</v>
+        <v>1.771536436758838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.443150951743765</v>
@@ -24177,7 +24177,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744448915741208</v>
+        <v>1.759270332691537</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.39168028534398</v>
@@ -24266,7 +24266,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731687509113568</v>
+        <v>1.742891823558566</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.215689288729442</v>
@@ -24355,7 +24355,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.69965461682869</v>
+        <v>1.717521011425465</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.214500889170403</v>
@@ -24444,7 +24444,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.695715988103313</v>
+        <v>1.718591595923859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.990115540106311</v>
@@ -24533,7 +24533,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.690732032508603</v>
+        <v>1.711863381372968</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.006373446510223</v>
@@ -24622,7 +24622,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.67797766442659</v>
+        <v>1.702095409905264</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.031498529561456</v>
@@ -24711,7 +24711,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666116254735845</v>
+        <v>1.688721905890511</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.972546646192856</v>
@@ -24800,7 +24800,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.663791218816266</v>
+        <v>1.685064477893192</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.127323247683362</v>
@@ -24889,7 +24889,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667292417941824</v>
+        <v>1.688684317641747</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.261665026053334</v>
@@ -24978,7 +24978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666412667933266</v>
+        <v>1.687944510994021</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.298431256058179</v>
@@ -25067,7 +25067,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.658078887385417</v>
+        <v>1.680688739699967</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.056164662500024</v>
@@ -25156,7 +25156,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.649110043483319</v>
+        <v>1.664075987045518</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.224288226079074</v>
@@ -25245,7 +25245,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642825585573556</v>
+        <v>1.657952594078748</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.842850808428295</v>
@@ -25334,7 +25334,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655329484864738</v>
+        <v>1.670386130206889</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.816154760394893</v>
@@ -25423,7 +25423,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636023000905424</v>
+        <v>1.651150995952722</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.898170488632637</v>
@@ -25512,7 +25512,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.628586625960156</v>
+        <v>1.64682584630999</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.760925243149738</v>
@@ -25601,7 +25601,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639971746754913</v>
+        <v>1.658842455940538</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.766386835892099</v>
@@ -25690,7 +25690,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651415946607403</v>
+        <v>1.670832626104088</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.795550044322504</v>
@@ -25779,7 +25779,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651358210406607</v>
+        <v>1.666425402961925</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.943916508727656</v>
@@ -25868,7 +25868,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.658812565708444</v>
+        <v>1.669506932252915</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.668870676049602</v>
@@ -25957,7 +25957,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.651572823412622</v>
+        <v>1.657166963106564</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.746204968491981</v>
@@ -26046,7 +26046,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.660817038435336</v>
+        <v>1.664315230398027</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691573241159173</v>
@@ -26135,7 +26135,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.657639701930427</v>
+        <v>1.662688287643715</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.713657992613582</v>
@@ -26224,7 +26224,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647595278422076</v>
+        <v>1.649093133171764</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.675664351942765</v>
@@ -26313,7 +26313,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.649501207762937</v>
+        <v>1.649196012538218</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.58700354506883</v>
@@ -26402,7 +26402,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.652432320552742</v>
+        <v>1.647960773737102</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.922467642719962</v>
@@ -26491,7 +26491,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660100582820148</v>
+        <v>1.657082155373317</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.786466674177922</v>
@@ -26580,7 +26580,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662483564114454</v>
+        <v>1.656246697652775</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.695643404000437</v>
@@ -26669,7 +26669,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.660026561766011</v>
+        <v>1.649467068952106</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.768792636805194</v>
@@ -26758,7 +26758,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696348117979761</v>
+        <v>1.676656091464184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.076224045582407</v>
@@ -26847,7 +26847,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708676058886964</v>
+        <v>1.683440991842184</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.480495312069057</v>
